--- a/biology/Zoologie/Cidaridae/Cidaridae.xlsx
+++ b/biology/Zoologie/Cidaridae/Cidaridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cidaridae constituent une famille d'oursins de l'ordre des Cidaroida.
 </t>
@@ -511,14 +523,16 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers : le test (coquille) est plus ou moins sphérique, protégé par des radioles (piquants), l'ensemble suivant une symétrie pentaradiaire (centrale d'ordre 5) reliant la bouche (péristome) située au centre de la face orale (inférieure) à l'anus (périprocte) situé à l'apex aboral (pôle supérieur). 
 Mais cette famille se caractérise par les spécificités suivantes : 
-Les radioles primaires sont très longues, épaisses et robustes, parfois complexes[2] (comme chez les Goniocidaris[3], mais jamais en forme de massue aussi marquée que chez certains autres Cidaroida) ; elles sont souvent couvertes d'épibiontes (algues, éponges...), car le squelette (stéréome) y est à nu, dépourvu d'épiderme[4]. Peu nombreuses, elles laissent apparaître le test souvent protégé par des radioles secondaires plus petites, généralement très courtes et aplaties.
+Les radioles primaires sont très longues, épaisses et robustes, parfois complexes (comme chez les Goniocidaris, mais jamais en forme de massue aussi marquée que chez certains autres Cidaroida) ; elles sont souvent couvertes d'épibiontes (algues, éponges...), car le squelette (stéréome) y est à nu, dépourvu d'épiderme. Peu nombreuses, elles laissent apparaître le test souvent protégé par des radioles secondaires plus petites, généralement très courtes et aplaties.
 Le test est composé de plaques soudées, dont chacune comporte deux paires de pores aquifères et un gros tubercule perforé (et presque jamais crénelé) sur lequel est implanté une robuste radiole primaire articulée, entourée d'une couronne de radioles secondaires.
-L'interambulacre souvent étroit ne porte pas de grand tubercule primaire, laissant apparaître des séparations bien marquées[5].
-La mâchoire (« Lanterne d'Aristote ») porte cinq dents en gouttière (de type aulodonte). Le péristome est recouvert de petites radioles en forme d'écailles[6].
+L'interambulacre souvent étroit ne porte pas de grand tubercule primaire, laissant apparaître des séparations bien marquées.
+La mâchoire (« Lanterne d'Aristote ») porte cinq dents en gouttière (de type aulodonte). Le péristome est recouvert de petites radioles en forme d'écailles.
 			Acanthocidaris hastigera
 			Austrocidaris spinulosa
 			Calocidaris micans
@@ -566,9 +580,11 @@
           <t>Origine et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces oursins peuplent les fonds marins du monde entier depuis le Trias supérieur[5]. Ils furent très nombreux et diversifiés à certaines époques géologiques, mais aujourd'hui il en subsiste beaucoup moins d'espèces, souvent cantonnées aux abysses.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces oursins peuplent les fonds marins du monde entier depuis le Trias supérieur. Ils furent très nombreux et diversifiés à certaines époques géologiques, mais aujourd'hui il en subsiste beaucoup moins d'espèces, souvent cantonnées aux abysses.
 </t>
         </is>
       </c>
@@ -597,11 +613,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille comporte actuellement 116 espèces, réparties en 24 genres contemporains. 
 Liste des genres
-World Register of Marine Species                               (19 novembre 2013)[1] énumère aussi plusieurs genres éteints : Almucidaris (Blake &amp; Zinsmeister, 1991), Cyathocidaris (Lambert, 1910a), Triassicidaris (Smith, 1994), Plegiocidaris (Pomel, 1883), Hirudocidaris (Smith &amp; Wright, 1989), Sinaecidaris (Fourtau, 1921), Temnocidaris (Cotteau, 1863) et Tylocidaris (Pomel, 1883) (sous-famille fossile Typocidarinae Vadet, 1988).
+World Register of Marine Species                               (19 novembre 2013) énumère aussi plusieurs genres éteints : Almucidaris (Blake &amp; Zinsmeister, 1991), Cyathocidaris (Lambert, 1910a), Triassicidaris (Smith, 1994), Plegiocidaris (Pomel, 1883), Hirudocidaris (Smith &amp; Wright, 1989), Sinaecidaris (Fourtau, 1921), Temnocidaris (Cotteau, 1863) et Tylocidaris (Pomel, 1883) (sous-famille fossile Typocidarinae Vadet, 1988).
 </t>
         </is>
       </c>
